--- a/cc2git_migration_checklist.xlsx
+++ b/cc2git_migration_checklist.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayman\Documents\2016-jobs\ReleaseTeam\migration_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am255098\Documents\Migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Migration_Checklist" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
-  <si>
-    <t>Workflow Enhancer</t>
-  </si>
-  <si>
-    <t>CONDITIONS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>Check project property</t>
   </si>
@@ -105,31 +99,7 @@
     <t>Conversion phases</t>
   </si>
   <si>
-    <t>Each conversion will progress through the following phases:</t>
-  </si>
-  <si>
-    <t>·Planning: During the Planning phase, the POC and team will gather background information, decide what the end result looks like, determine how the transition will be verified, and create and deconflict the conversion schedule.</t>
-  </si>
-  <si>
-    <t>·Preparation: The Preparation phase includes data cleaning, build adjustments, configuration within the Atlassian tool suite, ClearQuest to Jira data mapping, and creation of labels and views for moving code from ClearCase to git.</t>
-  </si>
-  <si>
-    <t>·Conversion: The Conversion phase is short and focused on migrating data using the work done during the Preparation phase.</t>
-  </si>
-  <si>
-    <t>·Validation: The Validation phase is also short and focused. This phase clearly demonstrates that the migration was successful or that it was not. The outcome is either a shutdown of all work in the old tools or a rollback back to the Preparation phase.</t>
-  </si>
-  <si>
-    <t>Preparation: The Preparation phase includes data cleaning, build adjustments, configuration within the Atlassian tool suite, ClearQuest to Jira data mapping, and creation of labels and views for moving code from ClearCase to git.</t>
-  </si>
-  <si>
     <t>Conversion: The Conversion phase is short and focused on migrating data using the work done during the Preparation phase.</t>
-  </si>
-  <si>
-    <t>Validation: The Validation phase is also short and focused. This phase clearly demonstrates that the migration was successful or that it was not. The outcome is either a shutdown of all work in the old tools or a rollback back to the Preparation phase.</t>
-  </si>
-  <si>
-    <t>Planning: During the Planning phase, the POC and team will gather background information, decide what the end result looks like, determine how the transition will be verified, and create and deconflict the conversion schedule.</t>
   </si>
   <si>
     <t>Planning</t>
@@ -301,12 +271,42 @@
   <si>
     <t>Workflow</t>
   </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>Objectives</t>
+  </si>
+  <si>
+    <t>Completion</t>
+  </si>
+  <si>
+    <t>During the Planning phase, the POC and team will gather background information, decide what the end result looks like, determine how the transition will be verified, and create and deconflict the conversion schedule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning: </t>
+  </si>
+  <si>
+    <t>The Preparation phase includes data cleaning, build adjustments, configuration within the Atlassian tool suite, ClearQuest to Jira data mapping, and creation of labels and views for moving code from ClearCase to git.</t>
+  </si>
+  <si>
+    <t>Preparation:</t>
+  </si>
+  <si>
+    <t>Conversion:</t>
+  </si>
+  <si>
+    <t>The Validation phase is also short and focused. This phase clearly demonstrates that the migration was successful or that it was not. The outcome is either a shutdown of all work in the old tools or a rollback back to the Preparation phase.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +335,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -344,7 +351,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -365,33 +372,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -410,6 +397,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -446,7 +436,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="450" name="Picture 1" descr="https://d.adroll.com/cm/r/out"/>
+        <xdr:cNvPr id="450" name="Picture 1" descr="https://d.adroll.com/cm/r/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -486,7 +482,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="451" name="Picture 2" descr="https://d.adroll.com/cm/f/out"/>
+        <xdr:cNvPr id="451" name="Picture 2" descr="https://d.adroll.com/cm/f/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -526,7 +528,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="452" name="Picture 3" descr="https://d.adroll.com/cm/b/out"/>
+        <xdr:cNvPr id="452" name="Picture 3" descr="https://d.adroll.com/cm/b/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -566,7 +574,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="453" name="Picture 4" descr="https://d.adroll.com/cm/x/out"/>
+        <xdr:cNvPr id="453" name="Picture 4" descr="https://d.adroll.com/cm/x/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -606,7 +620,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="454" name="Picture 5" descr="https://d.adroll.com/cm/l/out"/>
+        <xdr:cNvPr id="454" name="Picture 5" descr="https://d.adroll.com/cm/l/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -646,7 +666,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="455" name="Picture 6" descr="https://d.adroll.com/cm/o/out"/>
+        <xdr:cNvPr id="455" name="Picture 6" descr="https://d.adroll.com/cm/o/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -686,7 +712,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="456" name="Picture 7" descr="https://d.adroll.com/cm/g/out?google_nid=adroll"/>
+        <xdr:cNvPr id="456" name="Picture 7" descr="https://d.adroll.com/cm/g/out?google_nid=adroll">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C8010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -726,7 +758,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="457" name="Picture 8" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript"/>
+        <xdr:cNvPr id="457" name="Picture 8" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -766,7 +804,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="458" name="Picture 9" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=5031437176201405"/>
+        <xdr:cNvPr id="458" name="Picture 9" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=5031437176201405">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -806,7 +850,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="459" name="Picture 10" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2"/>
+        <xdr:cNvPr id="459" name="Picture 10" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -846,7 +896,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="460" name="Picture 11" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript"/>
+        <xdr:cNvPr id="460" name="Picture 11" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CC010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -886,7 +942,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="461" name="Picture 12" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=5031437176201405"/>
+        <xdr:cNvPr id="461" name="Picture 12" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=5031437176201405">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CD010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -926,7 +988,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="462" name="Picture 13" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2"/>
+        <xdr:cNvPr id="462" name="Picture 13" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -966,7 +1034,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="463" name="Picture 14" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript"/>
+        <xdr:cNvPr id="463" name="Picture 14" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1006,7 +1080,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="464" name="Picture 15" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=5031437176201405"/>
+        <xdr:cNvPr id="464" name="Picture 15" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=5031437176201405">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D0010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1046,7 +1126,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="465" name="Picture 16" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2"/>
+        <xdr:cNvPr id="465" name="Picture 16" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D1010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1086,7 +1172,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="466" name="Picture 17" descr="https://d.adroll.com/cm/r/out"/>
+        <xdr:cNvPr id="466" name="Picture 17" descr="https://d.adroll.com/cm/r/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D2010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1126,7 +1218,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="467" name="Picture 18" descr="https://d.adroll.com/cm/f/out"/>
+        <xdr:cNvPr id="467" name="Picture 18" descr="https://d.adroll.com/cm/f/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D3010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1166,7 +1264,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="468" name="AutoShape 19" descr="https://d.adroll.com/cm/b/out"/>
+        <xdr:cNvPr id="468" name="AutoShape 19" descr="https://d.adroll.com/cm/b/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D4010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1199,7 +1303,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="469" name="Picture 20" descr="https://d.adroll.com/cm/x/out"/>
+        <xdr:cNvPr id="469" name="Picture 20" descr="https://d.adroll.com/cm/x/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D5010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1239,7 +1349,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="470" name="Picture 21" descr="https://d.adroll.com/cm/l/out"/>
+        <xdr:cNvPr id="470" name="Picture 21" descr="https://d.adroll.com/cm/l/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D6010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1279,7 +1395,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="471" name="Picture 22" descr="https://d.adroll.com/cm/o/out"/>
+        <xdr:cNvPr id="471" name="Picture 22" descr="https://d.adroll.com/cm/o/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D7010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1319,7 +1441,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="472" name="Picture 23" descr="https://d.adroll.com/cm/g/out?google_nid=adroll"/>
+        <xdr:cNvPr id="472" name="Picture 23" descr="https://d.adroll.com/cm/g/out?google_nid=adroll">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D8010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1359,7 +1487,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="473" name="Picture 24" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript"/>
+        <xdr:cNvPr id="473" name="Picture 24" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1399,7 +1533,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="474" name="Picture 25" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2"/>
+        <xdr:cNvPr id="474" name="Picture 25" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DA010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1439,7 +1579,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="475" name="Picture 26" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2"/>
+        <xdr:cNvPr id="475" name="Picture 26" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1479,7 +1625,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="476" name="Picture 27" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript"/>
+        <xdr:cNvPr id="476" name="Picture 27" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1519,7 +1671,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="477" name="Picture 28" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2"/>
+        <xdr:cNvPr id="477" name="Picture 28" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DD010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1559,7 +1717,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="478" name="Picture 29" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2"/>
+        <xdr:cNvPr id="478" name="Picture 29" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DE010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1599,7 +1763,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="479" name="Picture 30" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript"/>
+        <xdr:cNvPr id="479" name="Picture 30" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DF010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1639,7 +1809,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="480" name="Picture 31" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2"/>
+        <xdr:cNvPr id="480" name="Picture 31" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E0010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1679,7 +1855,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="481" name="Picture 32" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2"/>
+        <xdr:cNvPr id="481" name="Picture 32" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E1010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1708,18 +1890,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="482" name="Picture 49" descr="https://d.adroll.com/cm/r/out"/>
+        <xdr:cNvPr id="482" name="Picture 49" descr="https://d.adroll.com/cm/r/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E2010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1748,18 +1936,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="483" name="Picture 50" descr="https://d.adroll.com/cm/f/out"/>
+        <xdr:cNvPr id="483" name="Picture 50" descr="https://d.adroll.com/cm/f/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E3010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1788,18 +1982,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="484" name="Picture 51" descr="https://d.adroll.com/cm/b/out"/>
+        <xdr:cNvPr id="484" name="Picture 51" descr="https://d.adroll.com/cm/b/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E4010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1828,18 +2028,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="485" name="Picture 52" descr="https://d.adroll.com/cm/x/out"/>
+        <xdr:cNvPr id="485" name="Picture 52" descr="https://d.adroll.com/cm/x/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E5010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1868,18 +2074,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="486" name="Picture 53" descr="https://d.adroll.com/cm/l/out"/>
+        <xdr:cNvPr id="486" name="Picture 53" descr="https://d.adroll.com/cm/l/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E6010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1908,18 +2120,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="487" name="Picture 54" descr="https://d.adroll.com/cm/o/out"/>
+        <xdr:cNvPr id="487" name="Picture 54" descr="https://d.adroll.com/cm/o/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E7010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1948,18 +2166,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="488" name="Picture 55" descr="https://d.adroll.com/cm/g/out?google_nid=adroll"/>
+        <xdr:cNvPr id="488" name="Picture 55" descr="https://d.adroll.com/cm/g/out?google_nid=adroll">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E8010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1988,18 +2212,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="489" name="Picture 56" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript"/>
+        <xdr:cNvPr id="489" name="Picture 56" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E9010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2028,18 +2258,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="490" name="Picture 57" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2"/>
+        <xdr:cNvPr id="490" name="Picture 57" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EA010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2068,18 +2304,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="491" name="Picture 58" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2"/>
+        <xdr:cNvPr id="491" name="Picture 58" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EB010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2108,18 +2350,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="492" name="Picture 59" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript"/>
+        <xdr:cNvPr id="492" name="Picture 59" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EC010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2148,18 +2396,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="493" name="Picture 60" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2"/>
+        <xdr:cNvPr id="493" name="Picture 60" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000ED010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2188,18 +2442,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="494" name="Picture 61" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2"/>
+        <xdr:cNvPr id="494" name="Picture 61" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EE010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2228,18 +2488,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="495" name="Picture 62" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript"/>
+        <xdr:cNvPr id="495" name="Picture 62" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EF010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2268,18 +2534,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="496" name="Picture 63" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2"/>
+        <xdr:cNvPr id="496" name="Picture 63" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F0010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2308,18 +2580,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="497" name="Picture 64" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2"/>
+        <xdr:cNvPr id="497" name="Picture 64" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F1010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2348,18 +2626,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="498" name="Picture 97" descr="https://d.adroll.com/cm/r/out"/>
+        <xdr:cNvPr id="498" name="Picture 97" descr="https://d.adroll.com/cm/r/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F2010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2388,18 +2672,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="499" name="Picture 98" descr="https://d.adroll.com/cm/f/out"/>
+        <xdr:cNvPr id="499" name="Picture 98" descr="https://d.adroll.com/cm/f/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F3010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2428,18 +2718,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="500" name="Picture 99" descr="https://d.adroll.com/cm/b/out"/>
+        <xdr:cNvPr id="500" name="Picture 99" descr="https://d.adroll.com/cm/b/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F4010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2468,18 +2764,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="501" name="Picture 100" descr="https://d.adroll.com/cm/x/out"/>
+        <xdr:cNvPr id="501" name="Picture 100" descr="https://d.adroll.com/cm/x/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F5010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2508,18 +2810,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="502" name="Picture 101" descr="https://d.adroll.com/cm/l/out"/>
+        <xdr:cNvPr id="502" name="Picture 101" descr="https://d.adroll.com/cm/l/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F6010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2548,18 +2856,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="503" name="Picture 102" descr="https://d.adroll.com/cm/o/out"/>
+        <xdr:cNvPr id="503" name="Picture 102" descr="https://d.adroll.com/cm/o/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F7010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2588,18 +2902,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="504" name="Picture 103" descr="https://d.adroll.com/cm/g/out?google_nid=adroll"/>
+        <xdr:cNvPr id="504" name="Picture 103" descr="https://d.adroll.com/cm/g/out?google_nid=adroll">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F8010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2628,18 +2948,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="505" name="Picture 104" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript"/>
+        <xdr:cNvPr id="505" name="Picture 104" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F9010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2668,18 +2994,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="506" name="Picture 105" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2"/>
+        <xdr:cNvPr id="506" name="Picture 105" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FA010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2708,18 +3040,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="507" name="Picture 106" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2"/>
+        <xdr:cNvPr id="507" name="Picture 106" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FB010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2748,18 +3086,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="508" name="Picture 107" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript"/>
+        <xdr:cNvPr id="508" name="Picture 107" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FC010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2788,18 +3132,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="509" name="Picture 108" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2"/>
+        <xdr:cNvPr id="509" name="Picture 108" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FD010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2828,18 +3178,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="510" name="Picture 109" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2"/>
+        <xdr:cNvPr id="510" name="Picture 109" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FE010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2868,18 +3224,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="511" name="Picture 110" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript"/>
+        <xdr:cNvPr id="511" name="Picture 110" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FF010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2908,18 +3270,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="512" name="Picture 111" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2"/>
+        <xdr:cNvPr id="512" name="Picture 111" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000000020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2948,18 +3316,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="513" name="Picture 112" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2"/>
+        <xdr:cNvPr id="513" name="Picture 112" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2999,7 +3373,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="514" name="Picture 113" descr="https://d.adroll.com/cm/r/out"/>
+        <xdr:cNvPr id="514" name="Picture 113" descr="https://d.adroll.com/cm/r/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3039,7 +3419,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="515" name="Picture 114" descr="https://d.adroll.com/cm/f/out"/>
+        <xdr:cNvPr id="515" name="Picture 114" descr="https://d.adroll.com/cm/f/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3079,7 +3465,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="516" name="Picture 115" descr="https://d.adroll.com/cm/b/out"/>
+        <xdr:cNvPr id="516" name="Picture 115" descr="https://d.adroll.com/cm/b/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3119,7 +3511,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="517" name="Picture 116" descr="https://d.adroll.com/cm/x/out"/>
+        <xdr:cNvPr id="517" name="Picture 116" descr="https://d.adroll.com/cm/x/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3159,7 +3557,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="518" name="Picture 117" descr="https://d.adroll.com/cm/l/out"/>
+        <xdr:cNvPr id="518" name="Picture 117" descr="https://d.adroll.com/cm/l/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3199,7 +3603,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="519" name="Picture 118" descr="https://d.adroll.com/cm/o/out"/>
+        <xdr:cNvPr id="519" name="Picture 118" descr="https://d.adroll.com/cm/o/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3239,7 +3649,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="520" name="Picture 119" descr="https://d.adroll.com/cm/g/out?google_nid=adroll"/>
+        <xdr:cNvPr id="520" name="Picture 119" descr="https://d.adroll.com/cm/g/out?google_nid=adroll">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3279,7 +3695,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="521" name="Picture 120" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript"/>
+        <xdr:cNvPr id="521" name="Picture 120" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3319,7 +3741,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="522" name="Picture 121" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650"/>
+        <xdr:cNvPr id="522" name="Picture 121" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3359,7 +3787,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="523" name="Picture 122" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2"/>
+        <xdr:cNvPr id="523" name="Picture 122" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3399,7 +3833,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="524" name="Picture 123" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript"/>
+        <xdr:cNvPr id="524" name="Picture 123" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3439,7 +3879,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="525" name="Picture 124" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650"/>
+        <xdr:cNvPr id="525" name="Picture 124" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3479,7 +3925,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="526" name="Picture 125" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2"/>
+        <xdr:cNvPr id="526" name="Picture 125" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3519,7 +3971,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="527" name="Picture 126" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript"/>
+        <xdr:cNvPr id="527" name="Picture 126" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3559,7 +4017,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="528" name="Picture 127" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650"/>
+        <xdr:cNvPr id="528" name="Picture 127" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3599,7 +4063,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="529" name="Picture 128" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2"/>
+        <xdr:cNvPr id="529" name="Picture 128" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3628,18 +4098,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="530" name="Picture 129" descr="https://d.adroll.com/cm/r/out"/>
+        <xdr:cNvPr id="530" name="Picture 129" descr="https://d.adroll.com/cm/r/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3668,18 +4144,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="531" name="Picture 130" descr="https://d.adroll.com/cm/f/out"/>
+        <xdr:cNvPr id="531" name="Picture 130" descr="https://d.adroll.com/cm/f/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3708,18 +4190,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="532" name="Picture 131" descr="https://d.adroll.com/cm/b/out"/>
+        <xdr:cNvPr id="532" name="Picture 131" descr="https://d.adroll.com/cm/b/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3748,18 +4236,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="533" name="Picture 132" descr="https://d.adroll.com/cm/x/out"/>
+        <xdr:cNvPr id="533" name="Picture 132" descr="https://d.adroll.com/cm/x/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3788,18 +4282,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="534" name="Picture 133" descr="https://d.adroll.com/cm/l/out"/>
+        <xdr:cNvPr id="534" name="Picture 133" descr="https://d.adroll.com/cm/l/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3828,18 +4328,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="535" name="Picture 134" descr="https://d.adroll.com/cm/o/out"/>
+        <xdr:cNvPr id="535" name="Picture 134" descr="https://d.adroll.com/cm/o/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3868,18 +4374,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="536" name="Picture 135" descr="https://d.adroll.com/cm/g/out?google_nid=adroll"/>
+        <xdr:cNvPr id="536" name="Picture 135" descr="https://d.adroll.com/cm/g/out?google_nid=adroll">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3908,18 +4420,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="537" name="Picture 136" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript"/>
+        <xdr:cNvPr id="537" name="Picture 136" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3948,18 +4466,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="538" name="Picture 137" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650"/>
+        <xdr:cNvPr id="538" name="Picture 137" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3988,18 +4512,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="539" name="Picture 138" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2"/>
+        <xdr:cNvPr id="539" name="Picture 138" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4028,18 +4558,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="540" name="Picture 139" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript"/>
+        <xdr:cNvPr id="540" name="Picture 139" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4068,18 +4604,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="541" name="Picture 140" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650"/>
+        <xdr:cNvPr id="541" name="Picture 140" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4108,18 +4650,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="542" name="Picture 141" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2"/>
+        <xdr:cNvPr id="542" name="Picture 141" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4148,18 +4696,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="543" name="Picture 142" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript"/>
+        <xdr:cNvPr id="543" name="Picture 142" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4188,18 +4742,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="544" name="Picture 143" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650"/>
+        <xdr:cNvPr id="544" name="Picture 143" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4228,18 +4788,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="545" name="Picture 144" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2"/>
+        <xdr:cNvPr id="545" name="Picture 144" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4268,18 +4834,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="546" name="Picture 145" descr="https://d.adroll.com/cm/r/out"/>
+        <xdr:cNvPr id="546" name="Picture 145" descr="https://d.adroll.com/cm/r/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4308,18 +4880,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="547" name="Picture 146" descr="https://d.adroll.com/cm/f/out"/>
+        <xdr:cNvPr id="547" name="Picture 146" descr="https://d.adroll.com/cm/f/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4348,18 +4926,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="548" name="Picture 147" descr="https://d.adroll.com/cm/b/out"/>
+        <xdr:cNvPr id="548" name="Picture 147" descr="https://d.adroll.com/cm/b/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4388,18 +4972,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="549" name="Picture 148" descr="https://d.adroll.com/cm/x/out"/>
+        <xdr:cNvPr id="549" name="Picture 148" descr="https://d.adroll.com/cm/x/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4428,18 +5018,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="550" name="Picture 149" descr="https://d.adroll.com/cm/l/out"/>
+        <xdr:cNvPr id="550" name="Picture 149" descr="https://d.adroll.com/cm/l/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4468,18 +5064,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="551" name="Picture 150" descr="https://d.adroll.com/cm/o/out"/>
+        <xdr:cNvPr id="551" name="Picture 150" descr="https://d.adroll.com/cm/o/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4508,18 +5110,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="552" name="Picture 151" descr="https://d.adroll.com/cm/g/out?google_nid=adroll"/>
+        <xdr:cNvPr id="552" name="Picture 151" descr="https://d.adroll.com/cm/g/out?google_nid=adroll">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4548,18 +5156,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="553" name="Picture 152" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript"/>
+        <xdr:cNvPr id="553" name="Picture 152" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4588,18 +5202,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="554" name="Picture 153" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650"/>
+        <xdr:cNvPr id="554" name="Picture 153" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4628,18 +5248,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="555" name="Picture 154" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2"/>
+        <xdr:cNvPr id="555" name="Picture 154" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4668,18 +5294,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="556" name="Picture 155" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript"/>
+        <xdr:cNvPr id="556" name="Picture 155" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4708,18 +5340,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="557" name="Picture 156" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650"/>
+        <xdr:cNvPr id="557" name="Picture 156" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4748,18 +5386,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="558" name="Picture 157" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2"/>
+        <xdr:cNvPr id="558" name="Picture 157" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4788,18 +5432,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="559" name="Picture 158" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript"/>
+        <xdr:cNvPr id="559" name="Picture 158" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4828,18 +5478,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="560" name="Picture 159" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650"/>
+        <xdr:cNvPr id="560" name="Picture 159" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=9910975690910650">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4868,18 +5524,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="561" name="Picture 160" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2"/>
+        <xdr:cNvPr id="561" name="Picture 160" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4904,6 +5566,4549 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Picture 17" descr="https://d.adroll.com/cm/r/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15804D18-B6F9-49CB-B0FF-F417984ED9E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1950720" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Picture 18" descr="https://d.adroll.com/cm/f/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC9A709-A50A-41F7-B48C-ACC5D2207673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1969770" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="AutoShape 19" descr="https://d.adroll.com/cm/b/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651B407C-83BE-4AB4-A3F8-95EA211F8F1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1988820" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Picture 20" descr="https://d.adroll.com/cm/x/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B91E346-F2BA-44FE-9378-D2452F0B89D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2007870" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Picture 21" descr="https://d.adroll.com/cm/l/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97EC3DDE-EC3F-46B5-8771-C2F8D72F9C51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2026920" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Picture 22" descr="https://d.adroll.com/cm/o/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6151AC24-5DE2-4986-9769-E2CFA7641F39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2045970" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Picture 23" descr="https://d.adroll.com/cm/g/out?google_nid=adroll">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79EC590-FF84-4A93-9464-2043C6347B91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2065020" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Picture 24" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B3625D-E1ED-4A75-9317-61380F934E2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2084070" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Picture 25" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D66B178-D772-4925-A8EB-ADE25494F3B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2103120" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Picture 26" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C1F3A2-1725-4593-8774-18F7CE4B2469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2122170" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="Picture 27" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912EE502-1FF3-4748-A4BC-15A69F0BFDE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2141220" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="Picture 28" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78672102-A34A-402C-8B3A-FA8555A53BEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2160270" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="Picture 29" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1839C4BF-EB5C-4158-9C15-ABD3519643D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2179320" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="Picture 30" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3651E1D-4581-4053-8DEC-85B79940D9A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2198370" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="128" name="Picture 31" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8B2097-AA99-4ABC-A288-9D17977509DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2217420" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="Picture 32" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90007B9E-3FC7-45DE-954F-96FABC393B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2236470" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="Picture 17" descr="https://d.adroll.com/cm/r/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F840D4-AA8F-4ADC-B13E-A850F3451839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1950720" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="Picture 18" descr="https://d.adroll.com/cm/f/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88BAF004-93B0-497D-BBE0-85B49F153E26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1969770" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="AutoShape 19" descr="https://d.adroll.com/cm/b/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558B5508-02DA-46F4-8854-154BBC0001BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1988820" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="Picture 20" descr="https://d.adroll.com/cm/x/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BC765F-2F31-44C8-B4B0-F62EB4BC3772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2007870" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="Picture 21" descr="https://d.adroll.com/cm/l/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3183DE-4B19-4DF2-8107-94C3718A8DCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2026920" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="Picture 22" descr="https://d.adroll.com/cm/o/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6DE4FA6-ED9F-45EF-98B8-C58940124298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2045970" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="136" name="Picture 23" descr="https://d.adroll.com/cm/g/out?google_nid=adroll">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0F373A-42A4-4955-8027-F59354E4D3A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2065020" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="137" name="Picture 24" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA2020AA-2928-4AED-A2F2-1313B1493AFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2084070" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="Picture 25" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442D671C-B200-4274-8418-473BEF184BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2103120" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="Picture 26" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415CC5CC-2C99-4D1D-8157-2F623A0B53DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2122170" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="Picture 27" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A15044-DB12-48B1-AAE8-19AC4B8A0D0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2141220" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="Picture 28" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3E270E-FADA-4A4E-9C11-BD1FEC308F91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2160270" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="Picture 29" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA1A478F-57C6-4716-9880-50295062E25C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2179320" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="143" name="Picture 30" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C481CC-F1A5-466F-8138-5B98D89E96BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2198370" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="Picture 31" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC3187D-B00F-43B7-93B1-5379A094776C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2217420" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="Picture 32" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FB10AD-5AD7-4A1F-8021-FEB7550E5849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2236470" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="146" name="Picture 17" descr="https://d.adroll.com/cm/r/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D5E3F7-D387-45E9-8B9A-CDF82344C243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1950720" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="147" name="Picture 18" descr="https://d.adroll.com/cm/f/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D1D470-332E-4263-B35E-D555BB59A90A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1969770" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="AutoShape 19" descr="https://d.adroll.com/cm/b/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1BABB6-C6AA-4252-905B-ABE6F9FFFAC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1988820" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="149" name="Picture 20" descr="https://d.adroll.com/cm/x/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B175EB70-27EF-419A-A92E-A8468B42C570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2007870" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="150" name="Picture 21" descr="https://d.adroll.com/cm/l/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EB4AFA-CDB1-4E11-9CE6-03CEB2884562}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2026920" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="151" name="Picture 22" descr="https://d.adroll.com/cm/o/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFD11BE-B0FA-4807-8875-23BE0F841D59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2045970" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="152" name="Picture 23" descr="https://d.adroll.com/cm/g/out?google_nid=adroll">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721CCDA2-3A92-4722-AE0A-D08FFAA0891B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2065020" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="Picture 24" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5583F444-B6EC-4081-9234-CC6C1B1B3B0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2084070" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="154" name="Picture 25" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91390660-0431-4776-8B8D-3F327581D93C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2103120" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="Picture 26" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E891E553-6BB7-4FD2-873B-1CA915473935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2122170" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="156" name="Picture 27" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A187962-403E-404B-AB97-9AE2C7F317C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2141220" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="157" name="Picture 28" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD8ABF0-068B-4E90-B4A4-762809BE86D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2160270" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="158" name="Picture 29" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2DD1B87-A89F-4F2D-9F92-CF7740143856}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2179320" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="159" name="Picture 30" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504F0182-163D-4971-B5C0-510F676A3902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2198370" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="160" name="Picture 31" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C3A528-0C7C-40F5-9866-5A196C39B4A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2217420" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="161" name="Picture 32" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4B14E2-AFB8-4A3F-964F-A4F90415CC69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2236470" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="162" name="Picture 17" descr="https://d.adroll.com/cm/r/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850FB642-1690-4698-AB11-71410D785322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1950720" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="163" name="Picture 18" descr="https://d.adroll.com/cm/f/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951165B8-C5D4-4478-A5D4-68D8710D693B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1969770" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="AutoShape 19" descr="https://d.adroll.com/cm/b/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC1AB91-3A18-499C-B2CA-AD0B5041261A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1988820" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="165" name="Picture 20" descr="https://d.adroll.com/cm/x/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4890461-1EB5-46E9-9FFA-BDBD448E5169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2007870" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="166" name="Picture 21" descr="https://d.adroll.com/cm/l/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E03485-5893-4DA7-9AC0-56658E1C80AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2026920" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="167" name="Picture 22" descr="https://d.adroll.com/cm/o/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393F9195-D84B-44D5-BF67-C7E3FFD6A1CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2045970" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="168" name="Picture 23" descr="https://d.adroll.com/cm/g/out?google_nid=adroll">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FB8832-F7FC-4C90-9486-774E878CC027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2065020" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="Picture 24" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5B6A67-4355-4F1A-8C0E-CBE5BC62825C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2084070" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="170" name="Picture 25" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99137FA5-72E9-44BE-A0F0-7E634F1D249F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2103120" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="171" name="Picture 26" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDE5ECC-EB62-4CFA-A382-305B89FE3F0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2122170" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="172" name="Picture 27" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4533F6BB-C827-47B4-BD81-A154DDCA0CAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2141220" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="173" name="Picture 28" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AEFB80D-3CB8-48D9-926B-0691243C3737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2160270" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="174" name="Picture 29" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D903429-0601-4161-873A-6C854CD2EFC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2179320" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="175" name="Picture 30" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D05151-50AF-4A12-AF72-9E8C35FDECEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2198370" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="176" name="Picture 31" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27102EC8-6E51-4421-B98E-504E139613C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2217420" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="177" name="Picture 32" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793124FB-3818-4659-A1BB-EB7030FAB258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2236470" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="178" name="Picture 17" descr="https://d.adroll.com/cm/r/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4711B255-D33D-4540-ABBA-3F507EFCD176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1950720" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="179" name="Picture 18" descr="https://d.adroll.com/cm/f/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E01106-6BF6-4B67-A677-8532C898D5E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1969770" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="AutoShape 19" descr="https://d.adroll.com/cm/b/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A136B8E-F79D-4FC6-9475-92068A957042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1988820" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="181" name="Picture 20" descr="https://d.adroll.com/cm/x/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B123CD6-78DA-4AA3-9E97-B760E14E8BC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2007870" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="182" name="Picture 21" descr="https://d.adroll.com/cm/l/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD44A21A-474C-44A3-ACF6-DF09F02B06DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2026920" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="183" name="Picture 22" descr="https://d.adroll.com/cm/o/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D80AD4C-1F1A-48B6-89F7-A886F28EDC2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2045970" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="184" name="Picture 23" descr="https://d.adroll.com/cm/g/out?google_nid=adroll">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B477AAD-2267-439C-BAC8-A247DD3C19E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2065020" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="185" name="Picture 24" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6A433A-837A-431C-9C65-DBA9DB8AE5B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2084070" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="186" name="Picture 25" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0D087F-4B38-4E09-8244-71B4DA0DE26C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2103120" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="187" name="Picture 26" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE8A6BA-5EF2-4A7E-BD70-B78113D6507F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2122170" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="188" name="Picture 27" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3D459D-D87D-4941-8E3A-A0E6462D8C41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2141220" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="189" name="Picture 28" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E35D2D-4A33-468E-A842-62924C08395B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2160270" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="190" name="Picture 29" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794B97BF-0A6A-49D2-A975-82FCC21C8659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2179320" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="191" name="Picture 30" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2760C13B-7AAC-4E6C-8DD1-2B1B2A3D655B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2198370" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="192" name="Picture 31" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E86078-40A9-435F-9A51-DA4B5E872D7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2217420" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="193" name="Picture 32" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B3E83F0-2AD1-4421-95A1-36CC0C4C7D3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2236470" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="194" name="Picture 17" descr="https://d.adroll.com/cm/r/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E61E41-44C0-4417-BA3C-A407F764945D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1950720" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="195" name="Picture 18" descr="https://d.adroll.com/cm/f/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B60772-A1A9-40F8-AF73-166FB9227380}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1969770" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="AutoShape 19" descr="https://d.adroll.com/cm/b/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB8A754-DB5C-48BD-AA91-1878D66A68C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1988820" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="197" name="Picture 20" descr="https://d.adroll.com/cm/x/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB08DECB-3A92-493B-8158-EA541D8FE866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2007870" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="198" name="Picture 21" descr="https://d.adroll.com/cm/l/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B43C70-1572-4ADA-BE40-2E488ED05E42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2026920" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="199" name="Picture 22" descr="https://d.adroll.com/cm/o/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3940C5-28EB-4B40-8464-BA7B25B9147A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2045970" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="200" name="Picture 23" descr="https://d.adroll.com/cm/g/out?google_nid=adroll">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED04442-C190-40F6-8891-A92040EB8085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2065020" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="201" name="Picture 24" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50D7EEB-C0BC-4B09-9E9A-C4228659EC7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2084070" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="202" name="Picture 25" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1858329-B792-47DF-9BF7-D491DE2100B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2103120" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="203" name="Picture 26" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C940996-3716-4323-B04B-E9D3B6F195C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2122170" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="204" name="Picture 27" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76481E3-F800-4DB9-8AF0-C494EBB9E083}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2141220" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="205" name="Picture 28" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBDA7C3-1DF3-4AB7-90F4-4683F6598B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2160270" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="206" name="Picture 29" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E381829F-205C-4170-9D25-09F7AC381479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2179320" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="207" name="Picture 30" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A410A553-6978-48D9-BA33-9337CB863A5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2198370" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="208" name="Picture 31" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD833D3-DBB4-403E-B82A-567BABE34806}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2217420" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="209" name="Picture 32" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC753990-8657-4F92-8263-4F477E86807A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2236470" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="210" name="Picture 17" descr="https://d.adroll.com/cm/r/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7882745E-51EA-4280-ADE5-514759DBA160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1950720" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="211" name="Picture 18" descr="https://d.adroll.com/cm/f/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BBCFD42-ABAF-4439-A2FD-DEB16875AC60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1969770" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="AutoShape 19" descr="https://d.adroll.com/cm/b/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93886DFD-F9A2-437A-B411-948288972575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1988820" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="213" name="Picture 20" descr="https://d.adroll.com/cm/x/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCF6C85-AB93-4501-8F4C-0BC0CE932DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2007870" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="214" name="Picture 21" descr="https://d.adroll.com/cm/l/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0322B147-D1F7-474B-900A-81F7B8D61715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2026920" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="215" name="Picture 22" descr="https://d.adroll.com/cm/o/out">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05EAF53F-EA24-4AF8-AB82-38E8107BEF39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2045970" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="216" name="Picture 23" descr="https://d.adroll.com/cm/g/out?google_nid=adroll">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{882D5DF6-17D5-43C0-9293-1DC2124983EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2065020" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="217" name="Picture 24" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=SW3KMMWFJRGLNHHG6UNQPO&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69494A4-1FEF-4B4D-A954-D62BA5B99C69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2084070" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="218" name="Picture 25" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=fZVHCOLBgwMQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6DB222-4612-4ABD-8A1F-948129247475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2103120" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="219" name="Picture 26" descr="https://secure.adnxs.com/seg?add=162435&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796A8315-5809-431C-A956-F4BA185C6662}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2122170" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="220" name="Picture 27" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=X6QLOZSVNBAHTGKHG7BDJS&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9319A6E8-6F2C-42C6-BF96-61885DC9019D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2141220" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="221" name="Picture 28" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=k63mCO6kq1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A292E57F-4066-44F6-8608-F5BA3255B504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2160270" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="222" name="Picture 29" descr="https://secure.adnxs.com/seg?add=2046173&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349D77C0-F11C-4E0E-BAFA-6BB33F566E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2179320" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="223" name="Picture 30" descr="https://www.facebook.com/tr?id=397953783686871&amp;cd%5bsegment_eid%5d=IJVOL2RJSBAWTI2ZI6FX5Z&amp;ev=NoScript">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2139EC2E-1360-4C83-8A2D-B50FF9B94738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2198370" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="224" name="Picture 31" descr="https://googleads.g.doubleclick.net/pagead/viewthroughconversion/1032613984/?label=TgQSCPOIo1YQ4OCx7AM&amp;guid=ON&amp;script=0&amp;ord=1878658852138583.2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E318F98-A6C7-49B6-A0E3-3B8BE23FB0F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2217420" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="225" name="Picture 32" descr="https://secure.adnxs.com/seg?add=2035105&amp;t=2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342FA7BC-3AC5-472C-AB93-AD59C8D4892D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2236470" y="243840"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4983,6 +10188,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5018,6 +10240,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5170,650 +10409,794 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="5" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="83.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="83.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="83.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="138.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="166.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="83.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="83.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+    <row r="44" spans="1:6" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="143.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="171.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>50</v>
-      </c>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+    <row r="62" spans="1:6" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="226.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>